--- a/pred_ohlcv/54_21/2019-10-28 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BTC ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>80.29659090000004</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74.23438261000004</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>96.17982099000004</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>86.18759769000003</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>86.26729769000002</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>119.70008448</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>111.41505985</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>112.6357438</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>80.18147892000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>577.4202789100001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>545.5462789100001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>492.9970789100001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>460.4351310200001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>812.4738083300001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>885.3863642900001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>834.96518573</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>778.4112929300001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>708.2135854200001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>685.9456882800001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>732.8973088300002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>763.8529088300002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>737.5121032800001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>746.3212032800002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>767.9196298000002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>815.9205232500002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>879.3162464100002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>985.3622299700002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>940.1239471700002</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1069.91235633</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>973.7340219700003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>951.9398600900003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>719.6222308300003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>748.6621468200003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>823.4475195000002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>793.3084195000002</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>748.8045195000002</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>866.9309847700002</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>832.0955125700002</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>770.6126190700002</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>810.5182333399998</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>795.0417998299998</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>843.4359355299998</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>855.6208668599999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>847.5373668599999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>839.8900668599999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1252.341286430003</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>1263.123186430003</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>1286.220586430003</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1421.514701710003</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1382.725059720002</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>1409.336859720002</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>1453.085045040002</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>1412.691359290002</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>1396.932262630002</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>1379.870262630002</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>1345.239517630002</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>1370.605129100002</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>1403.260329100002</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>1379.761657140002</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>1388.823757140002</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>1397.742957140003</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>1407.631576720003</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>1379.279534590003</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>1372.980135640003</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>1324.473749210003</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>1350.787349210003</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>1340.487821650003</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1280.422721650003</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>1226.917055150003</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>1195.682555150003</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>1175.452882060003</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>1168.805736720003</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>1177.597436720003</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>1192.759336720002</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>1177.159574400002</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>1161.128751480002</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>113.27045497</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>120.22965497</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>112.7709909</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>90.61849090000004</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>76.75819090000005</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>99.13179090000004</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>96.24089090000004</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>80.29659090000004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74.23438261000004</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>96.17982099000004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>89.82559769000004</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>86.18759769000003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>86.26729769000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>119.70008448</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>111.41505985</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>114.02130523</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>112.6357438</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>115.1927438</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>124.94804346</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>122.3995916</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>80.84320501000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>86.94867892000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>82.67906068000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>89.11855366000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>92.82565366000001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>84.87275366000001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>80.39615366000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>89.59755366000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>93.65845366000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>89.84732683000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>93.39252683000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>96.54512683000002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>100.79841285</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>113.55642683</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>98.83414779000002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>112.70671154</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>154.84626329</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>154.84626329</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>151.24376336</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>144.87463941</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>577.4202789100001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>545.5462789100001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>492.9970789100001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>460.4351310200001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>812.4738083300001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>885.3863642900001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>834.96518573</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>778.4112929300001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>708.2135854200001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>685.9456882800001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>732.8973088300002</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>763.8529088300002</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>737.5121032800001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>746.3212032800002</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>767.9196298000002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>815.9205232500002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>879.3162464100002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>985.3622299700002</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>940.1239471700002</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1069.91235633</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>949.7356988700002</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>973.7340219700003</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>872.0028682200002</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>829.4528144700002</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>719.6222308300003</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>748.6621468200003</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>823.4475195000002</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>793.3084195000002</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>748.8045195000002</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>866.9309847700002</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>832.0955125700002</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>770.6126190700002</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>810.5182333399998</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>795.0417998299998</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>843.4359355299998</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>855.6208668599999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>847.5373668599999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>839.8900668599999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>1031.34370069</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>1122.681238040001</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>1112.048593790001</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>1322.936086430003</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>1295.948886430003</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>1252.341286430003</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>1263.123186430003</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>1316.126825020003</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>1421.514701710003</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>1382.725059720002</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>1409.336859720002</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>1453.085045040002</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>1412.691359290002</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>1396.932262630002</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>1379.870262630002</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>1345.239517630002</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>1370.605129100002</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>1403.260329100002</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>1379.761657140002</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>1388.823757140002</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>1397.742957140003</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>1416.627612620003</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>1407.631576720003</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>1379.279534590003</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>1372.980135640003</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>1324.473749210003</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>1350.787349210003</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>1340.487821650003</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1280.422721650003</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>1226.917055150003</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>1195.682555150003</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>1175.452882060003</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>1168.805736720003</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>1177.597436720003</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>1192.759336720002</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>1177.159574400002</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>1171.560251480002</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>1161.128751480002</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>1157.330421860002</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>1075.552421860002</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>1205.411652350002</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>1203.147752350002</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>1202.729807100002</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
